--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.97934961897845</v>
+        <v>89.993675526399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2310858571047169</v>
+        <v>0.2028806546609118</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.95447765576668</v>
+        <v>88.99802198286521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1848970589222004</v>
+        <v>0.2179122201075672</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.9998157466357</v>
+        <v>87.99835219134053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23313723902844</v>
+        <v>0.1837566730034647</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.97076657769679</v>
+        <v>86.99615133693545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2068557956763816</v>
+        <v>0.2045692568433643</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.00475578089866</v>
+        <v>86.01415349853926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213942500869034</v>
+        <v>0.230382775569688</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.00209907658628</v>
+        <v>85.00445330584066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1956927900115297</v>
+        <v>0.2319834890506167</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.00432567463655</v>
+        <v>84.013671511578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2245043485625072</v>
+        <v>0.2412665983862252</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.0152249502009</v>
+        <v>83.0069417011202</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2281388214631073</v>
+        <v>0.2359718973137247</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.00869479353045</v>
+        <v>82.01472950535235</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2198458184547036</v>
+        <v>0.2291300725764427</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02214814312954</v>
+        <v>80.97248354675712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2451153771915612</v>
+        <v>0.2435038330926056</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97339944156757</v>
+        <v>80.02024044379839</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2123396894164896</v>
+        <v>0.2418912308095419</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.01248065145985</v>
+        <v>78.99424404814299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2407020768259779</v>
+        <v>0.265631826303009</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00199376767682</v>
+        <v>77.99492455588971</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2708622289933514</v>
+        <v>0.2392757833616204</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.02628452667575</v>
+        <v>76.96068881948266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2368865418795524</v>
+        <v>0.2451469950372122</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.97858940063655</v>
+        <v>76.00449784957641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2551051862124565</v>
+        <v>0.2822923389790494</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03991534720448</v>
+        <v>74.97299670640172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2339554573846722</v>
+        <v>0.2424994556582321</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.00640297471965</v>
+        <v>74.05784557362456</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3041471056434851</v>
+        <v>0.2721241064313998</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.98517915726428</v>
+        <v>73.01864669716501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3106585150568347</v>
+        <v>0.2612581598583004</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.97198064535309</v>
+        <v>71.99508142320506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2415795156916754</v>
+        <v>0.2788869849701058</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.01096641948634</v>
+        <v>70.94241168138061</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3129685012132828</v>
+        <v>0.268055592028441</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99851409037889</v>
+        <v>70.00559605349878</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3049906875217273</v>
+        <v>0.308028683628121</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00205480814314</v>
+        <v>68.97712490335262</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2812927594581349</v>
+        <v>0.3181980028407863</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98891077626904</v>
+        <v>67.98758873563807</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3316654238379803</v>
+        <v>0.2930286455433606</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.01492739270266</v>
+        <v>67.00697379572993</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3344424964043446</v>
+        <v>0.3288260398539656</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.99852935545479</v>
+        <v>65.96359824162835</v>
       </c>
       <c r="D26" t="n">
-        <v>0.307972808208727</v>
+        <v>0.3096483398573798</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.02572094599674</v>
+        <v>64.97241376638397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3347653841513749</v>
+        <v>0.3059617487924776</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.99925416274038</v>
+        <v>64.00683207158127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3187972710748187</v>
+        <v>0.3268562195415314</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.96595017569248</v>
+        <v>62.98958460691914</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3178649114990524</v>
+        <v>0.31079966267129</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99185118537432</v>
+        <v>61.96584201034473</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3430944843441148</v>
+        <v>0.2823542981575741</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.94790216351523</v>
+        <v>60.99526045099967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4088266006968153</v>
+        <v>0.3337896844773282</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97654714635585</v>
+        <v>60.00024676018932</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3318941382021592</v>
+        <v>0.3422006221565796</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.02120310096194</v>
+        <v>59.03675121847359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3511503977046021</v>
+        <v>0.3372676216757283</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.04214880826191</v>
+        <v>57.99013260133357</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347807123439152</v>
+        <v>0.3234753383908323</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.98278319122927</v>
+        <v>56.99824035044711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.36204819500782</v>
+        <v>0.3539558450036337</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.97294474139649</v>
+        <v>55.99626254725734</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3611236371732547</v>
+        <v>0.3450586059452803</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.95970916072059</v>
+        <v>55.03138243282658</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3331589738273853</v>
+        <v>0.3416009190479578</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.95881734206185</v>
+        <v>54.01973041988376</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3818796840773842</v>
+        <v>0.323652168657425</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04181284383606</v>
+        <v>52.98651412729991</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3730993089646784</v>
+        <v>0.3698994834874644</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.97104652242398</v>
+        <v>52.0328596231937</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3632778139989404</v>
+        <v>0.3617432050796016</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92959487993363</v>
+        <v>50.99023399667513</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3739412761541557</v>
+        <v>0.3630949179141165</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96406450924968</v>
+        <v>49.97892951280608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3948536492534925</v>
+        <v>0.3813432393807965</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.01756501493429</v>
+        <v>48.98419949057594</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3766773981785558</v>
+        <v>0.4078925439513403</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.00512831970218</v>
+        <v>47.96516976647452</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4237285210614679</v>
+        <v>0.4039931896340813</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.94903607906498</v>
+        <v>47.01638660891727</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3907813775644127</v>
+        <v>0.4271571270608726</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03175731598204</v>
+        <v>46.00131931541237</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406359659017541</v>
+        <v>0.3486599493189316</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.99864833979132</v>
+        <v>45.01581500981983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3803648549968842</v>
+        <v>0.4219563101598424</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.03714267998647</v>
+        <v>43.98868353909911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.383650692443099</v>
+        <v>0.3923717831620623</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.12073546464792</v>
+        <v>43.06729740761184</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3918810643990659</v>
+        <v>0.4198230237825521</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.01676308183911</v>
+        <v>42.02984547075929</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4370401436538938</v>
+        <v>0.4362489659983959</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.02676054663038</v>
+        <v>41.04007386462612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3568892039696154</v>
+        <v>0.4338798788306144</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.94771505734204</v>
+        <v>39.96331857268065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4145153829751121</v>
+        <v>0.4166946868618788</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.97507067448714</v>
+        <v>38.95329213257377</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3966229782957688</v>
+        <v>0.3821420291074785</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.00718542596594</v>
+        <v>37.94051156653866</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4695794393221516</v>
+        <v>0.4166904831931602</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.93324269544908</v>
+        <v>37.05694220003554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4361790629965272</v>
+        <v>0.4154158868366549</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.97924688576143</v>
+        <v>36.00057316570434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4489661773349347</v>
+        <v>0.4206178220795059</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.01071168373127</v>
+        <v>35.00454665105293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4728114575318093</v>
+        <v>0.4717938700691765</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.91319629482329</v>
+        <v>33.97583679944799</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4737069942086997</v>
+        <v>0.4251224792495645</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.95986226100189</v>
+        <v>33.05523718193878</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4884796005819161</v>
+        <v>0.4719236510190397</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.98738985247243</v>
+        <v>31.97023223232049</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4668635710310515</v>
+        <v>0.4595803613466272</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.96261958025777</v>
+        <v>30.97006366845457</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4676388588173851</v>
+        <v>0.4522974295372072</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.93471172277804</v>
+        <v>30.04170052640199</v>
       </c>
       <c r="D62" t="n">
-        <v>0.482190123435023</v>
+        <v>0.478422754972917</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.95699538030041</v>
+        <v>29.12019841940376</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4720696180777105</v>
+        <v>0.4790653117559609</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.97947120299035</v>
+        <v>28.05719611336227</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4823063687026858</v>
+        <v>0.5208335531660829</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.95834921367603</v>
+        <v>27.07440488489578</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5155304366279492</v>
+        <v>0.4654079153959545</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.94415688150056</v>
+        <v>26.08368999333878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4743497964951621</v>
+        <v>0.4603675882484899</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.91223552997384</v>
+        <v>24.98889086501413</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5388680078902331</v>
+        <v>0.4979816505876751</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10840762383264</v>
+        <v>24.06419712286072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5326351757876315</v>
+        <v>0.5732122991638997</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.00386776437829</v>
+        <v>22.93798048373467</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4629300701178703</v>
+        <v>0.5423687598845603</v>
       </c>
     </row>
   </sheetData>
